--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\5_筆記\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\9_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B745453-4A3C-4721-A6EB-6E90782F6474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF2EDA9-E2DA-4757-959F-1EF0C9AE0F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="6700" windowWidth="19160" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
-    <sheet name="目錄生成" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="目錄生成" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -3256,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3377,19 +3377,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>735.63636363636363</v>
+        <v>740.7540983606558</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44754.63636363636</v>
+        <v>44759.754098360652</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1067.9329530744644</v>
+        <v>1067.5117544955335</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45086.932953074465</v>
+        <v>45086.511754495536</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3440,19 +3440,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>843.81818181818187</v>
+        <v>849.68852459016398</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44862.818181818184</v>
+        <v>44868.688524590165</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1170.783638763819</v>
+        <v>1170.321875313723</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45189.783638763816</v>
+        <v>45189.321875313726</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3503,19 +3503,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1276.5454545454545</v>
+        <v>1285.4262295081967</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45295.545454545456</v>
+        <v>45304.426229508194</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1410.7685720389795</v>
+        <v>1410.2121572228316</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45429.768572038978</v>
+        <v>45429.212157222835</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3566,19 +3566,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1904</v>
+        <v>1917.2459016393443</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45923</v>
+        <v>45936.245901639348</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1700.4646700639946</v>
+        <v>1699.7939975273985</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45719.464670063993</v>
+        <v>45718.793997527398</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3629,19 +3629,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2866.818181818182</v>
+        <v>2886.7622950819673</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46885.818181818184</v>
+        <v>46905.762295081964</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2245.5733042175739</v>
+        <v>2244.6876378638026</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46264.573304217571</v>
+        <v>46263.687637863804</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3692,19 +3692,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3180.5454545454545</v>
+        <v>3202.6721311475412</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47199.545454545456</v>
+        <v>47221.672131147541</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2334.7105651483475</v>
+        <v>2333.7897425729002</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46353.710565148351</v>
+        <v>46352.789742572902</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3755,19 +3755,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3180.5454545454545</v>
+        <v>3202.6721311475412</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47199.545454545456</v>
+        <v>47221.672131147541</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2334.7105651483475</v>
+        <v>2333.7897425729002</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46353.710565148351</v>
+        <v>46352.789742572902</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.818181818181818</v>
+        <v>10.89344262295082</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.7141780948225753</v>
+        <v>1.7135020136364905</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>903</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" ref="B122" si="27">"卷"&amp;ROW(B121)</f>
+        <f t="shared" ref="B122:B123" si="27">"卷"&amp;ROW(B121)</f>
         <v>卷121</v>
       </c>
       <c r="C122" s="1">
@@ -7708,6 +7708,40 @@
       <c r="I122">
         <f t="shared" ref="I122" si="30">E122/H122</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>904</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="27"/>
+        <v>卷122</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45657</v>
+      </c>
+      <c r="D123" s="1">
+        <v>45676</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ref="E123" si="31">D123-C123+1</f>
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ref="F123" si="32">G122+1</f>
+        <v>431</v>
+      </c>
+      <c r="G123">
+        <v>435</v>
+      </c>
+      <c r="H123">
+        <f t="shared" ref="H123" si="33">IF(F123*G123&lt;0,ABS(F123)+ABS(G123),G123-F123+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ref="I123" si="34">E123/H123</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7722,9 +7756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11298,24 +11332,24 @@
       <c r="A123">
         <v>904</v>
       </c>
-      <c r="B123" t="e">
+      <c r="B123" t="str">
         <f>VLOOKUP($A123,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷122</v>
       </c>
       <c r="C123" t="s">
         <v>361</v>
       </c>
-      <c r="D123" t="e">
+      <c r="D123">
         <f>VLOOKUP($A123,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E123" t="e">
+        <v>431</v>
+      </c>
+      <c r="E123">
         <f>VLOOKUP($A123,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I123" t="e">
+        <v>435</v>
+      </c>
+      <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>904|[卷122](9_筆記/资治通鉴122.html)|宋紀四|431|435|</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\9_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF2EDA9-E2DA-4757-959F-1EF0C9AE0F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AD9EB-5855-4C49-9D30-AD1E29B26EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="6700" windowWidth="19160" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -3256,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3377,19 +3377,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>740.7540983606558</v>
+        <v>747.44715447154476</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44759.754098360652</v>
+        <v>44766.447154471542</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1067.5117544955335</v>
+        <v>1065.9609937995363</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45086.511754495536</v>
+        <v>45084.960993799534</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3440,19 +3440,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>849.68852459016398</v>
+        <v>857.36585365853659</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44868.688524590165</v>
+        <v>44876.365853658535</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1170.321875313723</v>
+        <v>1168.6217636678705</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45189.321875313726</v>
+        <v>45187.62176366787</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3503,19 +3503,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1285.4262295081967</v>
+        <v>1297.040650406504</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45304.426229508194</v>
+        <v>45316.040650406503</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1410.2121572228316</v>
+        <v>1408.1635600273169</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45429.212157222835</v>
+        <v>45427.163560027315</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3566,19 +3566,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1917.2459016393443</v>
+        <v>1934.5691056910568</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45936.245901639348</v>
+        <v>45953.569105691058</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1699.7939975273985</v>
+        <v>1697.3247284897914</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45718.793997527398</v>
+        <v>45716.324728489788</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3629,19 +3629,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2886.7622950819673</v>
+        <v>2912.8455284552847</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46905.762295081964</v>
+        <v>46931.845528455284</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2244.6876378638026</v>
+        <v>2241.4268087919622</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46263.687637863804</v>
+        <v>46260.426808791963</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3692,19 +3692,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3202.6721311475412</v>
+        <v>3231.6097560975609</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47221.672131147541</v>
+        <v>47250.609756097561</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2333.7897425729002</v>
+        <v>2330.3994760111855</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46352.789742572902</v>
+        <v>46349.399476011182</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3755,19 +3755,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3202.6721311475412</v>
+        <v>3231.6097560975609</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47221.672131147541</v>
+        <v>47250.609756097561</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2333.7897425729002</v>
+        <v>2330.3994760111855</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46352.789742572902</v>
+        <v>46349.399476011182</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.89344262295082</v>
+        <v>10.991869918699187</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.7135020136364905</v>
+        <v>1.7110128311389026</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>903</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" ref="B122:B123" si="27">"卷"&amp;ROW(B121)</f>
+        <f t="shared" ref="B122:B124" si="27">"卷"&amp;ROW(B121)</f>
         <v>卷121</v>
       </c>
       <c r="C122" s="1">
@@ -7742,6 +7742,40 @@
       <c r="I123">
         <f t="shared" ref="I123" si="34">E123/H123</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>905</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="27"/>
+        <v>卷123</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45678</v>
+      </c>
+      <c r="D124" s="1">
+        <v>45700</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ref="E124" si="35">D124-C124+1</f>
+        <v>23</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ref="F124" si="36">G123+1</f>
+        <v>436</v>
+      </c>
+      <c r="G124">
+        <v>441</v>
+      </c>
+      <c r="H124">
+        <f t="shared" ref="H124" si="37">IF(F124*G124&lt;0,ABS(F124)+ABS(G124),G124-F124+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I124">
+        <f t="shared" ref="I124" si="38">E124/H124</f>
+        <v>3.8333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -11356,24 +11390,24 @@
       <c r="A124">
         <v>905</v>
       </c>
-      <c r="B124" t="e">
+      <c r="B124" t="str">
         <f>VLOOKUP($A124,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷123</v>
       </c>
       <c r="C124" t="s">
         <v>362</v>
       </c>
-      <c r="D124" t="e">
+      <c r="D124">
         <f>VLOOKUP($A124,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E124" t="e">
+        <v>436</v>
+      </c>
+      <c r="E124">
         <f>VLOOKUP($A124,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="e">
+        <v>441</v>
+      </c>
+      <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>905|[卷123](9_筆記/资治通鉴123.html)|宋紀五|436|441|</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\9_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48AD9EB-5855-4C49-9D30-AD1E29B26EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8AD076-24D8-4289-BE0C-4941B028A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3256,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3377,19 +3377,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>747.44715447154476</v>
+        <v>751.83870967741939</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44766.447154471542</v>
+        <v>44770.838709677417</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1065.9609937995363</v>
+        <v>1064.1240155529065</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45084.960993799534</v>
+        <v>45083.124015552909</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3440,19 +3440,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>857.36585365853659</v>
+        <v>862.40322580645159</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44876.365853658535</v>
+        <v>44881.403225806454</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1168.6217636678705</v>
+        <v>1166.6078693782265</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45187.62176366787</v>
+        <v>45185.607869378226</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3503,19 +3503,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1297.040650406504</v>
+        <v>1304.6612903225807</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45316.040650406503</v>
+        <v>45323.661290322583</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1408.1635600273169</v>
+        <v>1405.7368616373067</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45427.163560027315</v>
+        <v>45424.736861637306</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3566,19 +3566,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1934.5691056910568</v>
+        <v>1945.9354838709678</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45953.569105691058</v>
+        <v>45964.93548387097</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1697.3247284897914</v>
+        <v>1694.3997165786247</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45716.324728489788</v>
+        <v>45713.399716578628</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3629,19 +3629,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2912.8455284552847</v>
+        <v>2929.9596774193551</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46931.845528455284</v>
+        <v>46948.959677419356</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2241.4268087919622</v>
+        <v>2237.5641418528212</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46260.426808791963</v>
+        <v>46256.564141852825</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3692,19 +3692,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3231.6097560975609</v>
+        <v>3250.5967741935483</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47250.609756097561</v>
+        <v>47269.596774193546</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2330.3994760111855</v>
+        <v>2326.383481834765</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46349.399476011182</v>
+        <v>46345.383481834768</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3755,19 +3755,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3231.6097560975609</v>
+        <v>3250.5967741935483</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47250.609756097561</v>
+        <v>47269.596774193546</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2330.3994760111855</v>
+        <v>2326.383481834765</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46349.399476011182</v>
+        <v>46345.383481834768</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>10.991869918699187</v>
+        <v>11.056451612903226</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.7110128311389026</v>
+        <v>1.7080642304220008</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>903</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" ref="B122:B124" si="27">"卷"&amp;ROW(B121)</f>
+        <f t="shared" ref="B122:B125" si="27">"卷"&amp;ROW(B121)</f>
         <v>卷121</v>
       </c>
       <c r="C122" s="1">
@@ -7776,6 +7776,40 @@
       <c r="I124">
         <f t="shared" ref="I124" si="38">E124/H124</f>
         <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>906</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="27"/>
+        <v>卷124</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45702</v>
+      </c>
+      <c r="D125" s="1">
+        <v>45720</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ref="E125" si="39">D125-C125+1</f>
+        <v>19</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ref="F125" si="40">G124+1</f>
+        <v>442</v>
+      </c>
+      <c r="G125">
+        <v>446</v>
+      </c>
+      <c r="H125">
+        <f t="shared" ref="H125" si="41">IF(F125*G125&lt;0,ABS(F125)+ABS(G125),G125-F125+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I125">
+        <f t="shared" ref="I125" si="42">E125/H125</f>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -11414,24 +11448,24 @@
       <c r="A125">
         <v>906</v>
       </c>
-      <c r="B125" t="e">
+      <c r="B125" t="str">
         <f>VLOOKUP($A125,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷124</v>
       </c>
       <c r="C125" t="s">
         <v>363</v>
       </c>
-      <c r="D125" t="e">
+      <c r="D125">
         <f>VLOOKUP($A125,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E125" t="e">
+        <v>442</v>
+      </c>
+      <c r="E125">
         <f>VLOOKUP($A125,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
+        <v>446</v>
+      </c>
+      <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>906|[卷124](9_筆記/资治通鉴124.html)|宋紀六|442|446|</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\9_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8AD076-24D8-4289-BE0C-4941B028A437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7CB0F-9019-4EAC-98BC-6C91746EC5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3256,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3377,19 +3377,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>751.83870967741939</v>
+        <v>753.44</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44770.838709677417</v>
+        <v>44772.44</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1064.1240155529065</v>
+        <v>1060.7896469485104</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45083.124015552909</v>
+        <v>45079.789646948513</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3440,19 +3440,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>862.40322580645159</v>
+        <v>864.24</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44881.403225806454</v>
+        <v>44883.24</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1166.6078693782265</v>
+        <v>1162.9523737814327</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45185.607869378226</v>
+        <v>45181.952373781431</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3503,19 +3503,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1304.6612903225807</v>
+        <v>1307.44</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45323.661290322583</v>
+        <v>45326.44</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1405.7368616373067</v>
+        <v>1401.3320697249183</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45424.736861637306</v>
+        <v>45420.332069724915</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3566,19 +3566,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1945.9354838709678</v>
+        <v>1950.08</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45964.93548387097</v>
+        <v>45969.08</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1694.3997165786247</v>
+        <v>1689.0904169709829</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45713.399716578628</v>
+        <v>45708.090416970983</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3629,19 +3629,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2929.9596774193551</v>
+        <v>2936.2</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46948.959677419356</v>
+        <v>46955.199999999997</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2237.5641418528212</v>
+        <v>2230.5528691854711</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46256.564141852825</v>
+        <v>46249.552869185471</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3692,19 +3692,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3250.5967741935483</v>
+        <v>3257.52</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47269.596774193546</v>
+        <v>47276.52</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2326.383481834765</v>
+        <v>2319.0938991073372</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46345.383481834768</v>
+        <v>46338.093899107334</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3755,19 +3755,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3250.5967741935483</v>
+        <v>3257.52</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47269.596774193546</v>
+        <v>47276.52</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2326.383481834765</v>
+        <v>2319.0938991073372</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46345.383481834768</v>
+        <v>46338.093899107334</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>11.056451612903226</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.7080642304220008</v>
+        <v>1.7027121138820391</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>903</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" ref="B122:B125" si="27">"卷"&amp;ROW(B121)</f>
+        <f t="shared" ref="B122:B126" si="27">"卷"&amp;ROW(B121)</f>
         <v>卷121</v>
       </c>
       <c r="C122" s="1">
@@ -7810,6 +7810,40 @@
       <c r="I125">
         <f t="shared" ref="I125" si="42">E125/H125</f>
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>907</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="27"/>
+        <v>卷125</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45725</v>
+      </c>
+      <c r="D126" s="1">
+        <v>45738</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ref="E126" si="43">D126-C126+1</f>
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ref="F126" si="44">G125+1</f>
+        <v>447</v>
+      </c>
+      <c r="G126">
+        <v>450</v>
+      </c>
+      <c r="H126">
+        <f t="shared" ref="H126" si="45">IF(F126*G126&lt;0,ABS(F126)+ABS(G126),G126-F126+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <f t="shared" ref="I126" si="46">E126/H126</f>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -11472,24 +11506,24 @@
       <c r="A126">
         <v>907</v>
       </c>
-      <c r="B126" t="e">
+      <c r="B126" t="str">
         <f>VLOOKUP($A126,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷125</v>
       </c>
       <c r="C126" t="s">
         <v>364</v>
       </c>
-      <c r="D126" t="e">
+      <c r="D126">
         <f>VLOOKUP($A126,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E126" t="e">
+        <v>447</v>
+      </c>
+      <c r="E126">
         <f>VLOOKUP($A126,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I126" t="e">
+        <v>450</v>
+      </c>
+      <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>907|[卷125](9_筆記/资治通鉴125.html)|宋紀七|447|450|</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\9_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C7CB0F-9019-4EAC-98BC-6C91746EC5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831019F3-93DE-4C02-B6D2-A47CD298B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3256,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R126"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3377,19 +3377,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>753.44</v>
+        <v>753.93650793650795</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44772.44</v>
+        <v>44772.936507936509</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1060.7896469485104</v>
+        <v>1072.7361733550931</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45079.789646948513</v>
+        <v>45091.736173355093</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3440,19 +3440,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>864.24</v>
+        <v>864.80952380952374</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44883.24</v>
+        <v>44883.809523809527</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1162.9523737814327</v>
+        <v>1176.0494484775741</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45181.952373781431</v>
+        <v>45195.049448477577</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3503,19 +3503,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1307.44</v>
+        <v>1308.3015873015872</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45326.44</v>
+        <v>45327.30158730159</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1401.3320697249183</v>
+        <v>1417.1137570966962</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45420.332069724915</v>
+        <v>45436.113757096697</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3566,19 +3566,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1950.08</v>
+        <v>1951.3650793650793</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45969.08</v>
+        <v>45970.365079365081</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1689.0904169709829</v>
+        <v>1708.1128153583506</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45708.090416970983</v>
+        <v>45727.112815358349</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3629,19 +3629,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2936.2</v>
+        <v>2938.1349206349205</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46955.199999999997</v>
+        <v>46957.134920634919</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2230.5528691854711</v>
+        <v>2255.6731735074991</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46249.552869185471</v>
+        <v>46274.673173507501</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3692,19 +3692,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3257.52</v>
+        <v>3259.6666666666665</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47276.52</v>
+        <v>47278.666666666664</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2319.0938991073372</v>
+        <v>2345.211345280316</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46338.093899107334</v>
+        <v>46364.211345280317</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3755,19 +3755,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3257.52</v>
+        <v>3259.6666666666665</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47276.52</v>
+        <v>47278.666666666664</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2319.0938991073372</v>
+        <v>2345.211345280316</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46338.093899107334</v>
+        <v>46364.211345280317</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>11.08</v>
+        <v>11.087301587301587</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.7027121138820391</v>
+        <v>1.7218879187080147</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>903</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" ref="B122:B126" si="27">"卷"&amp;ROW(B121)</f>
+        <f t="shared" ref="B122:B127" si="27">"卷"&amp;ROW(B121)</f>
         <v>卷121</v>
       </c>
       <c r="C122" s="1">
@@ -7844,6 +7844,40 @@
       <c r="I126">
         <f t="shared" ref="I126" si="46">E126/H126</f>
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>908</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="27"/>
+        <v>卷126</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45740</v>
+      </c>
+      <c r="D127" s="1">
+        <v>45751</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ref="E127" si="47">D127-C127+1</f>
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ref="F127" si="48">G126+1</f>
+        <v>451</v>
+      </c>
+      <c r="G127">
+        <v>452</v>
+      </c>
+      <c r="H127">
+        <f t="shared" ref="H127" si="49">IF(F127*G127&lt;0,ABS(F127)+ABS(G127),G127-F127+1)</f>
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <f t="shared" ref="I127" si="50">E127/H127</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11530,24 +11564,24 @@
       <c r="A127">
         <v>908</v>
       </c>
-      <c r="B127" t="e">
+      <c r="B127" t="str">
         <f>VLOOKUP($A127,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷126</v>
       </c>
       <c r="C127" t="s">
         <v>365</v>
       </c>
-      <c r="D127" t="e">
+      <c r="D127">
         <f>VLOOKUP($A127,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E127" t="e">
+        <v>451</v>
+      </c>
+      <c r="E127">
         <f>VLOOKUP($A127,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I127" t="e">
+        <v>452</v>
+      </c>
+      <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>908|[卷126](9_筆記/资治通鉴126.html)|宋紀八|451|452|</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\study\zizhitongjian\9_筆記\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831019F3-93DE-4C02-B6D2-A47CD298B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF77E0-110A-4749-B33B-0C5C9A2FCD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="7540" windowWidth="19160" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計" sheetId="1" r:id="rId1"/>
@@ -3256,11 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I127" sqref="I127"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3377,19 +3377,19 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O8" si="5">L2*$L$10</f>
-        <v>753.93650793650795</v>
+        <v>754.42519685039372</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" ref="P2:P8" si="6">$C$2+O2</f>
-        <v>44772.936507936509</v>
+        <v>44773.425196850396</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q8" si="7">(M2-$F$2)*$L$11</f>
-        <v>1072.7361733550931</v>
+        <v>1120.3303827143925</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" ref="R2:R8" si="8">$C$2+Q2</f>
-        <v>45091.736173355093</v>
+        <v>45139.33038271439</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3440,19 +3440,19 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>864.80952380952374</v>
+        <v>865.37007874015751</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="6"/>
-        <v>44883.809523809527</v>
+        <v>44884.370078740154</v>
       </c>
       <c r="Q3">
         <f t="shared" si="7"/>
-        <v>1176.0494484775741</v>
+        <v>1228.2273698136919</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="8"/>
-        <v>45195.049448477577</v>
+        <v>45247.227369813692</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -3503,19 +3503,19 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>1308.3015873015872</v>
+        <v>1309.1496062992126</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>45327.30158730159</v>
+        <v>45328.149606299216</v>
       </c>
       <c r="Q4">
         <f t="shared" si="7"/>
-        <v>1417.1137570966962</v>
+        <v>1479.9870063787239</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>45436.113757096697</v>
+        <v>45498.987006378724</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3566,19 +3566,19 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>1951.3650793650793</v>
+        <v>1952.6299212598424</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>45970.365079365081</v>
+        <v>45971.629921259839</v>
       </c>
       <c r="Q5">
         <f t="shared" si="7"/>
-        <v>1708.1128153583506</v>
+        <v>1783.896853375084</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>45727.112815358349</v>
+        <v>45802.896853375081</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3629,19 +3629,19 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>2938.1349206349205</v>
+        <v>2940.0393700787399</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>46957.134920634919</v>
+        <v>46959.039370078739</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>2255.6731735074991</v>
+        <v>2355.750885001371</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>46274.673173507501</v>
+        <v>46374.750885001369</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3692,19 +3692,19 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>3259.6666666666665</v>
+        <v>3261.7795275590552</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>47278.666666666664</v>
+        <v>47280.779527559054</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2345.211345280316</v>
+        <v>2449.261607154097</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>46364.211345280317</v>
+        <v>46468.261607154098</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -3755,19 +3755,19 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>3259.6666666666665</v>
+        <v>3261.7795275590552</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>47278.666666666664</v>
+        <v>47280.779527559054</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>2345.211345280316</v>
+        <v>2449.261607154097</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>46364.211345280317</v>
+        <v>46468.261607154098</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="L10">
         <f>AVERAGE(E:E)</f>
-        <v>11.087301587301587</v>
+        <v>11.094488188976378</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="L11">
         <f>AVEDEV(I:I)</f>
-        <v>1.7218879187080147</v>
+        <v>1.7982831183216572</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>903</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" ref="B122:B127" si="27">"卷"&amp;ROW(B121)</f>
+        <f t="shared" ref="B122:B128" si="27">"卷"&amp;ROW(B121)</f>
         <v>卷121</v>
       </c>
       <c r="C122" s="1">
@@ -7880,11 +7880,46 @@
         <v>6</v>
       </c>
     </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>909</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="27"/>
+        <v>卷127</v>
+      </c>
+      <c r="C128" s="1">
+        <f>D127+1</f>
+        <v>45752</v>
+      </c>
+      <c r="D128" s="1">
+        <v>45763</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ref="E128" si="51">D128-C128+1</f>
+        <v>12</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ref="F128" si="52">G127+1</f>
+        <v>453</v>
+      </c>
+      <c r="G128">
+        <v>453</v>
+      </c>
+      <c r="H128">
+        <f t="shared" ref="H128" si="53">IF(F128*G128&lt;0,ABS(F128)+ABS(G128),G128-F128+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <f t="shared" ref="I128" si="54">E128/H128</f>
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11588,24 +11623,24 @@
       <c r="A128">
         <v>909</v>
       </c>
-      <c r="B128" t="e">
+      <c r="B128" t="str">
         <f>VLOOKUP($A128,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷127</v>
       </c>
       <c r="C128" t="s">
         <v>366</v>
       </c>
-      <c r="D128" t="e">
+      <c r="D128">
         <f>VLOOKUP($A128,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E128" t="e">
+        <v>453</v>
+      </c>
+      <c r="E128">
         <f>VLOOKUP($A128,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I128" t="e">
+        <v>453</v>
+      </c>
+      <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>909|[卷127](9_筆記/资治通鉴127.html)|宋紀九|453|453|</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -2052,15 +2052,6 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="19080">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
@@ -2429,11 +2420,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57203137"/>
-        <c:axId val="75129965"/>
+        <c:axId val="77714782"/>
+        <c:axId val="76552373"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57203137"/>
+        <c:axId val="77714782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +2500,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75129965"/>
+        <c:crossAx val="76552373"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75129965"/>
+        <c:axId val="76552373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2581,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57203137"/>
+        <c:crossAx val="77714782"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2629,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>667800</xdr:colOff>
+      <xdr:colOff>667440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2640,7 +2631,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7063200" y="2038320"/>
-        <a:ext cx="4132800" cy="2739600"/>
+        <a:ext cx="4132440" cy="2739240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2830,12 +2821,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F131" activeCellId="0" sqref="F131"/>
+      <selection pane="bottomLeft" activeCell="C132" activeCellId="0" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2952,19 +2943,19 @@
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>763.169230769231</v>
+        <v>768.763358778626</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44782.1692307692</v>
+        <v>44787.7633587786</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>1185.24923993208</v>
+        <v>1291.23306281727</v>
       </c>
       <c r="R2" s="2" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>45204.2492399321</v>
+        <v>45310.2330628173</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,19 +3006,19 @@
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>875.4</v>
+        <v>881.81679389313</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44894.4</v>
+        <v>44900.8167938931</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>1299.39844441992</v>
+        <v>1415.58937705328</v>
       </c>
       <c r="R3" s="2" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>45318.3984444199</v>
+        <v>45434.5893770533</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,19 +3069,19 @@
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1324.32307692308</v>
+        <v>1334.03053435115</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45343.3230769231</v>
+        <v>45353.0305343511</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>1565.74658822488</v>
+        <v>1705.75411027065</v>
       </c>
       <c r="R4" s="2" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>45584.7465882249</v>
+        <v>45724.7541102706</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,19 +3132,19 @@
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>1975.26153846154</v>
+        <v>1989.74045801527</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>45994.2615384615</v>
+        <v>46008.7404580153</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>1887.2668475323</v>
+        <v>2056.02439536875</v>
       </c>
       <c r="R5" s="2" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>45906.2668475323</v>
+        <v>46075.0243953688</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,19 +3195,19 @@
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>2974.11538461538</v>
+        <v>2995.91603053435</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>46993.1153846154</v>
+        <v>47014.9160305344</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>2492.25763131785</v>
+        <v>2715.11286081962</v>
       </c>
       <c r="R6" s="2" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>46511.2576313179</v>
+        <v>46734.1128608196</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,19 +3258,19 @@
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>3299.58461538462</v>
+        <v>3323.77099236641</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>47318.5846153846</v>
+        <v>47342.7709923664</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>2591.18694187398</v>
+        <v>2822.8883331575</v>
       </c>
       <c r="R7" s="2" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>46610.186941874</v>
+        <v>46841.8883331575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,19 +3321,19 @@
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>3299.58461538462</v>
+        <v>3323.77099236641</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>47318.5846153846</v>
+        <v>47342.7709923664</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>2591.18694187398</v>
+        <v>2822.8883331575</v>
       </c>
       <c r="R8" s="2" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>46610.186941874</v>
+        <v>46841.8883331575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +3408,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>11.2230769230769</v>
+        <v>11.3053435114504</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3458,7 +3449,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>1.90248674146401</v>
+        <v>2.07260523726689</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7562,7 +7553,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B131" s="1" t="str">
         <f aca="false">"卷"&amp;ROW(B130)</f>
@@ -7592,6 +7583,41 @@
       <c r="I131" s="1" t="n">
         <f aca="false">E131/H131</f>
         <v>17</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f aca="false">"卷"&amp;ROW(B131)</f>
+        <v>卷131</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <f aca="false">D131</f>
+        <v>45814</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <f aca="false">D132-C132+1</f>
+        <v>22</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <f aca="false">G131+1</f>
+        <v>466</v>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <f aca="false">IF(F132*G132&lt;0,ABS(F132)+ABS(G132),G132-F132+1)</f>
+        <v>1</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <f aca="false">E132/H132</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -11382,48 +11408,48 @@
       <c r="A131" s="1" t="n">
         <v>912</v>
       </c>
-      <c r="B131" s="1" t="e">
+      <c r="B131" s="1" t="str">
         <f aca="false">VLOOKUP($A131,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷130</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D131" s="1" t="e">
+      <c r="D131" s="1" t="n">
         <f aca="false">VLOOKUP($A131,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E131" s="1" t="e">
+        <v>465</v>
+      </c>
+      <c r="E131" s="1" t="n">
         <f aca="false">VLOOKUP($A131,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I131" s="1" t="e">
+        <v>465</v>
+      </c>
+      <c r="I131" s="1" t="str">
         <f aca="false">A131&amp;"|"&amp;"["&amp;B131&amp;"](9_筆記/资治通鉴"&amp;SUBSTITUTE(B131,"卷","")&amp;".html)|"&amp;C131&amp;"|"&amp;D131&amp;"|"&amp;E131&amp;"|"&amp;H131</f>
-        <v>#N/A</v>
+        <v>912|[卷130](9_筆記/资治通鉴130.html)|宋紀十二|465|465|</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>913</v>
       </c>
-      <c r="B132" s="1" t="e">
+      <c r="B132" s="1" t="str">
         <f aca="false">VLOOKUP($A132,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷131</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D132" s="1" t="e">
+      <c r="D132" s="1" t="n">
         <f aca="false">VLOOKUP($A132,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E132" s="1" t="e">
+        <v>466</v>
+      </c>
+      <c r="E132" s="1" t="n">
         <f aca="false">VLOOKUP($A132,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I132" s="1" t="e">
+        <v>466</v>
+      </c>
+      <c r="I132" s="1" t="str">
         <f aca="false">A132&amp;"|"&amp;"["&amp;B132&amp;"](9_筆記/资治通鉴"&amp;SUBSTITUTE(B132,"卷","")&amp;".html)|"&amp;C132&amp;"|"&amp;D132&amp;"|"&amp;E132&amp;"|"&amp;H132</f>
-        <v>#N/A</v>
+        <v>913|[卷131](9_筆記/资治通鉴131.html)|宋紀十三|466|466|</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -2420,11 +2420,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77714782"/>
-        <c:axId val="76552373"/>
+        <c:axId val="86990133"/>
+        <c:axId val="16193552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77714782"/>
+        <c:axId val="86990133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,12 +2500,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76552373"/>
+        <c:crossAx val="16193552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76552373"/>
+        <c:axId val="16193552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2581,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77714782"/>
+        <c:crossAx val="86990133"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2620,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>667440</xdr:colOff>
+      <xdr:colOff>667080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2631,7 +2631,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7063200" y="2038320"/>
-        <a:ext cx="4132440" cy="2739240"/>
+        <a:ext cx="4132080" cy="2738880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2821,12 +2821,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C132" activeCellId="0" sqref="C132"/>
+      <selection pane="bottomLeft" activeCell="H133" activeCellId="0" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2943,19 +2943,19 @@
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>768.763358778626</v>
+        <v>772.212121212121</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44787.7633587786</v>
+        <v>44791.2121212121</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>1291.23306281727</v>
+        <v>1290.47618617105</v>
       </c>
       <c r="R2" s="2" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>45310.2330628173</v>
+        <v>45309.4761861711</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,19 +3006,19 @@
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>881.81679389313</v>
+        <v>885.772727272727</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44900.8167938931</v>
+        <v>44904.7727272727</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>1415.58937705328</v>
+        <v>1414.75960699009</v>
       </c>
       <c r="R3" s="2" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>45434.5893770533</v>
+        <v>45433.7596069901</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,19 +3069,19 @@
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1334.03053435115</v>
+        <v>1340.01515151515</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45353.0305343511</v>
+        <v>45359.0151515152</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>1705.75411027065</v>
+        <v>1704.75425556786</v>
       </c>
       <c r="R4" s="2" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>45724.7541102706</v>
+        <v>45723.7542555679</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,19 +3132,19 @@
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>1989.74045801527</v>
+        <v>1998.66666666667</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>46008.7404580153</v>
+        <v>46017.6666666667</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>2056.02439536875</v>
+        <v>2054.81922420816</v>
       </c>
       <c r="R5" s="2" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>46075.0243953688</v>
+        <v>46073.8192242082</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,19 +3195,19 @@
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>2995.91603053435</v>
+        <v>3009.35606060606</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>47014.9160305344</v>
+        <v>47028.3560606061</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>2715.11286081962</v>
+        <v>2713.52135454908</v>
       </c>
       <c r="R6" s="2" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>46734.1128608196</v>
+        <v>46732.5213545491</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,19 +3258,19 @@
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>3323.77099236641</v>
+        <v>3338.68181818182</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>47342.7709923664</v>
+        <v>47357.6818181818</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>2822.8883331575</v>
+        <v>2821.23365259225</v>
       </c>
       <c r="R7" s="2" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>46841.8883331575</v>
+        <v>46840.2336525923</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,19 +3321,19 @@
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>3323.77099236641</v>
+        <v>3338.68181818182</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>47342.7709923664</v>
+        <v>47357.6818181818</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>2822.8883331575</v>
+        <v>2821.23365259225</v>
       </c>
       <c r="R8" s="2" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>46841.8883331575</v>
+        <v>46840.2336525923</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>11.3053435114504</v>
+        <v>11.3560606060606</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>2.07260523726689</v>
+        <v>2.07139034698403</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7618,6 +7618,41 @@
       <c r="I132" s="1" t="n">
         <f aca="false">E132/H132</f>
         <v>22</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f aca="false">"卷"&amp;ROW(B132)</f>
+        <v>卷132</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <f aca="false">D132+1</f>
+        <v>45836</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <f aca="false">D133-C133+1</f>
+        <v>18</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <f aca="false">G132+1</f>
+        <v>467</v>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="H133" s="1" t="n">
+        <f aca="false">IF(F133*G133&lt;0,ABS(F133)+ABS(G133),G133-F133+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <f aca="false">E133/H133</f>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -11456,24 +11491,24 @@
       <c r="A133" s="1" t="n">
         <v>914</v>
       </c>
-      <c r="B133" s="1" t="e">
+      <c r="B133" s="1" t="str">
         <f aca="false">VLOOKUP($A133,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷132</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D133" s="1" t="e">
+      <c r="D133" s="1" t="n">
         <f aca="false">VLOOKUP($A133,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E133" s="1" t="e">
+        <v>467</v>
+      </c>
+      <c r="E133" s="1" t="n">
         <f aca="false">VLOOKUP($A133,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I133" s="1" t="e">
+        <v>470</v>
+      </c>
+      <c r="I133" s="1" t="str">
         <f aca="false">A133&amp;"|"&amp;"["&amp;B133&amp;"](9_筆記/资治通鉴"&amp;SUBSTITUTE(B133,"卷","")&amp;".html)|"&amp;C133&amp;"|"&amp;D133&amp;"|"&amp;E133&amp;"|"&amp;H133</f>
-        <v>#N/A</v>
+        <v>914|[卷132](9_筆記/资治通鉴132.html)|宋紀十四|467|470|</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -2420,11 +2420,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="86990133"/>
-        <c:axId val="16193552"/>
+        <c:axId val="39358577"/>
+        <c:axId val="25870192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86990133"/>
+        <c:axId val="39358577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,12 +2500,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16193552"/>
+        <c:crossAx val="25870192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16193552"/>
+        <c:axId val="25870192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2581,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86990133"/>
+        <c:crossAx val="39358577"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2620,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>667080</xdr:colOff>
+      <xdr:colOff>666720</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2631,7 +2631,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7063200" y="2038320"/>
-        <a:ext cx="4132080" cy="2738880"/>
+        <a:ext cx="4131720" cy="2738520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2821,12 +2821,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H133" activeCellId="0" sqref="H133"/>
+      <selection pane="bottomLeft" activeCell="I134" activeCellId="0" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2943,19 +2943,19 @@
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>772.212121212121</v>
+        <v>777.654135338346</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44791.2121212121</v>
+        <v>44796.6541353383</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>1290.47618617105</v>
+        <v>1288.9902167834</v>
       </c>
       <c r="R2" s="2" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>45309.4761861711</v>
+        <v>45307.9902167834</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,19 +3006,19 @@
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>885.772727272727</v>
+        <v>892.015037593985</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44904.7727272727</v>
+        <v>44911.015037594</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>1414.75960699009</v>
+        <v>1413.13052658598</v>
       </c>
       <c r="R3" s="2" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>45433.7596069901</v>
+        <v>45432.130526586</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,19 +3069,19 @@
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1340.01515151515</v>
+        <v>1349.45864661654</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45359.0151515152</v>
+        <v>45368.4586466165</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>1704.75425556786</v>
+        <v>1702.79124945865</v>
       </c>
       <c r="R4" s="2" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>45723.7542555679</v>
+        <v>45721.7912494587</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,19 +3132,19 @@
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>1998.66666666667</v>
+        <v>2012.75187969925</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>46017.6666666667</v>
+        <v>46031.7518796993</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>2054.81922420816</v>
+        <v>2052.45312206924</v>
       </c>
       <c r="R5" s="2" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>46073.8192242082</v>
+        <v>46071.4531220692</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,19 +3195,19 @@
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>3009.35606060606</v>
+        <v>3030.56390977444</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>47028.3560606061</v>
+        <v>47049.5639097744</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>2713.52135454908</v>
+        <v>2710.39676402288</v>
       </c>
       <c r="R6" s="2" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>46732.5213545491</v>
+        <v>46729.3967640229</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,19 +3258,19 @@
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>3338.68181818182</v>
+        <v>3362.21052631579</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>47357.6818181818</v>
+        <v>47381.2105263158</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>2821.23365259225</v>
+        <v>2817.98503251845</v>
       </c>
       <c r="R7" s="2" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>46840.2336525923</v>
+        <v>46836.9850325184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,19 +3321,19 @@
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>3338.68181818182</v>
+        <v>3362.21052631579</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>47357.6818181818</v>
+        <v>47381.2105263158</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>2821.23365259225</v>
+        <v>2817.98503251845</v>
       </c>
       <c r="R8" s="2" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>46840.2336525923</v>
+        <v>46836.9850325184</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>11.3560606060606</v>
+        <v>11.4360902255639</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>2.07139034698403</v>
+        <v>2.06900516337625</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,6 +7653,41 @@
       <c r="I133" s="1" t="n">
         <f aca="false">E133/H133</f>
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f aca="false">"卷"&amp;ROW(B133)</f>
+        <v>卷133</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <f aca="false">D133+1</f>
+        <v>45854</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <f aca="false">D134-C134+1</f>
+        <v>22</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <f aca="false">G133+1</f>
+        <v>471</v>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <f aca="false">IF(F134*G134&lt;0,ABS(F134)+ABS(G134),G134-F134+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <f aca="false">E134/H134</f>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -11515,24 +11550,24 @@
       <c r="A134" s="1" t="n">
         <v>915</v>
       </c>
-      <c r="B134" s="1" t="e">
+      <c r="B134" s="1" t="str">
         <f aca="false">VLOOKUP($A134,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷133</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D134" s="1" t="e">
+      <c r="D134" s="1" t="n">
         <f aca="false">VLOOKUP($A134,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E134" s="1" t="e">
+        <v>471</v>
+      </c>
+      <c r="E134" s="1" t="n">
         <f aca="false">VLOOKUP($A134,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I134" s="1" t="e">
+        <v>475</v>
+      </c>
+      <c r="I134" s="1" t="str">
         <f aca="false">A134&amp;"|"&amp;"["&amp;B134&amp;"](9_筆記/资治通鉴"&amp;SUBSTITUTE(B134,"卷","")&amp;".html)|"&amp;C134&amp;"|"&amp;D134&amp;"|"&amp;E134&amp;"|"&amp;H134</f>
-        <v>#N/A</v>
+        <v>915|[卷133](9_筆記/资治通鉴133.html)|宋紀十五|471|475|</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -2420,11 +2420,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="39358577"/>
-        <c:axId val="25870192"/>
+        <c:axId val="36786850"/>
+        <c:axId val="8825527"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39358577"/>
+        <c:axId val="36786850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,12 +2500,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25870192"/>
+        <c:crossAx val="8825527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25870192"/>
+        <c:axId val="8825527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +2581,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39358577"/>
+        <c:crossAx val="36786850"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2620,9 +2620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>666720</xdr:colOff>
+      <xdr:colOff>666360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2631,7 +2631,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7063200" y="2038320"/>
-        <a:ext cx="4131720" cy="2738520"/>
+        <a:ext cx="4131360" cy="2738160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2821,12 +2821,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R134"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I134" activeCellId="0" sqref="I134"/>
+      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2943,19 +2943,19 @@
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>777.654135338346</v>
+        <v>784.537313432836</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44796.6541353383</v>
+        <v>44803.5373134328</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>1288.9902167834</v>
+        <v>1310.87765026651</v>
       </c>
       <c r="R2" s="2" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>45307.9902167834</v>
+        <v>45329.8776502665</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,19 +3006,19 @@
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>892.015037593985</v>
+        <v>899.910447761194</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44911.015037594</v>
+        <v>44918.9104477612</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>1413.13052658598</v>
+        <v>1437.12589908832</v>
       </c>
       <c r="R3" s="2" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>45432.130526586</v>
+        <v>45456.1258990883</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,19 +3069,19 @@
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1349.45864661654</v>
+        <v>1361.40298507463</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45368.4586466165</v>
+        <v>45380.4029850746</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>1702.79124945865</v>
+        <v>1731.70514633923</v>
       </c>
       <c r="R4" s="2" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>45721.7912494587</v>
+        <v>45750.7051463392</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,19 +3132,19 @@
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>2012.75187969925</v>
+        <v>2030.5671641791</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>46031.7518796993</v>
+        <v>46049.5671641791</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>2052.45312206924</v>
+        <v>2087.30438052067</v>
       </c>
       <c r="R5" s="2" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>46071.4531220692</v>
+        <v>46106.3043805207</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,19 +3195,19 @@
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>3030.56390977444</v>
+        <v>3057.38805970149</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>47049.5639097744</v>
+        <v>47076.3880597015</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>2710.39676402288</v>
+        <v>2756.42009927629</v>
       </c>
       <c r="R6" s="2" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>46729.3967640229</v>
+        <v>46775.4200992763</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3258,19 +3258,19 @@
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>3362.21052631579</v>
+        <v>3391.97014925373</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>47381.2105263158</v>
+        <v>47410.9701492537</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>2817.98503251845</v>
+        <v>2865.83524825519</v>
       </c>
       <c r="R7" s="2" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>46836.9850325184</v>
+        <v>46884.8352482552</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,19 +3321,19 @@
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>3362.21052631579</v>
+        <v>3391.97014925373</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>47381.2105263158</v>
+        <v>47410.9701492537</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>2817.98503251845</v>
+        <v>2865.83524825519</v>
       </c>
       <c r="R8" s="2" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>46836.9850325184</v>
+        <v>46884.8352482552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>11.4360902255639</v>
+        <v>11.5373134328358</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>2.06900516337625</v>
+        <v>2.10413748036358</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7688,6 +7688,41 @@
       <c r="I134" s="1" t="n">
         <f aca="false">E134/H134</f>
         <v>4.4</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f aca="false">"卷"&amp;ROW(B134)</f>
+        <v>卷134</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <f aca="false">D134+1</f>
+        <v>45876</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <f aca="false">D135-C135+1</f>
+        <v>25</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <f aca="false">G134+1</f>
+        <v>476</v>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="H135" s="1" t="n">
+        <f aca="false">IF(F135*G135&lt;0,ABS(F135)+ABS(G135),G135-F135+1)</f>
+        <v>3</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <f aca="false">E135/H135</f>
+        <v>8.33333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -1724,19 +1724,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <b val="true"/>
@@ -1749,19 +1746,19 @@
     <font>
       <sz val="14"/>
       <color rgb="FF595959"/>
-      <name val="思源黑体 CN"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF595959"/>
-      <name val="思源黑体 CN"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF595959"/>
-      <name val="思源黑体 CN"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
     <font>
@@ -1963,17 +1960,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                <a:uFillTx/>
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" strike="noStrike" u="none">
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
               <a:t>閱讀速度</a:t>
@@ -2034,11 +2032,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
@@ -2420,11 +2417,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="36786850"/>
-        <c:axId val="8825527"/>
+        <c:axId val="27855261"/>
+        <c:axId val="72329427"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36786850"/>
+        <c:axId val="27855261"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,17 +2444,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>卷目</a:t>
@@ -2490,22 +2488,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8825527"/>
+        <c:crossAx val="72329427"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8825527"/>
+        <c:axId val="72329427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,17 +2525,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1300" strike="noStrike" u="none">
-                    <a:uFillTx/>
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" strike="noStrike" u="none">
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
-                    <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
                   <a:t>一年看幾天</a:t>
@@ -2571,17 +2569,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" strike="noStrike" u="none">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36786850"/>
+        <c:crossAx val="27855261"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2614,15 +2611,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:colOff>70920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:colOff>645840</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2630,8 +2627,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7063200" y="2038320"/>
-        <a:ext cx="4131360" cy="2738160"/>
+        <a:off x="7869960" y="2651760"/>
+        <a:ext cx="4552560" cy="2737440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2821,15 +2818,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="D136" activeCellId="0" sqref="D136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.02"/>
@@ -2896,7 +2893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>101</v>
       </c>
@@ -2943,22 +2940,22 @@
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>784.537313432836</v>
+        <v>787.288888888889</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44803.5373134328</v>
+        <v>44806.2888888889</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>1310.87765026651</v>
+        <v>1302.97141097518</v>
       </c>
       <c r="R2" s="2" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>45329.8776502665</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45321.9714109752</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>102</v>
       </c>
@@ -3006,22 +3003,22 @@
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>899.910447761194</v>
+        <v>903.066666666667</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44918.9104477612</v>
+        <v>44922.0666666667</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>1437.12589908832</v>
+        <v>1428.45822423122</v>
       </c>
       <c r="R3" s="2" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>45456.1258990883</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45447.4582242312</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>103</v>
       </c>
@@ -3069,22 +3066,22 @@
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1361.40298507463</v>
+        <v>1366.17777777778</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45380.4029850746</v>
+        <v>45385.1777777778</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>1731.70514633923</v>
+        <v>1721.2607884953</v>
       </c>
       <c r="R4" s="2" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>45750.7051463392</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45740.2607884953</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>104</v>
       </c>
@@ -3132,22 +3129,22 @@
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>2030.5671641791</v>
+        <v>2037.68888888889</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>46049.5671641791</v>
+        <v>46056.6888888889</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>2087.30438052067</v>
+        <v>2074.7153124998</v>
       </c>
       <c r="R5" s="2" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>46106.3043805207</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46093.7153124998</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>105</v>
       </c>
@@ -3195,22 +3192,22 @@
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>3057.38805970149</v>
+        <v>3068.11111111111</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>47076.3880597015</v>
+        <v>47087.1111111111</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>2756.42009927629</v>
+        <v>2739.7954227568</v>
       </c>
       <c r="R6" s="2" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>46775.4200992763</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46758.7954227568</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>201</v>
       </c>
@@ -3258,22 +3255,22 @@
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>3391.97014925373</v>
+        <v>3403.86666666667</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>47410.9701492537</v>
+        <v>47422.8666666667</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>2865.83524825519</v>
+        <v>2848.55066091203</v>
       </c>
       <c r="R7" s="2" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>46884.8352482552</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46867.550660912</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>202</v>
       </c>
@@ -3321,22 +3318,22 @@
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>3391.97014925373</v>
+        <v>3403.86666666667</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>47410.9701492537</v>
+        <v>47422.8666666667</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>2865.83524825519</v>
+        <v>2848.55066091203</v>
       </c>
       <c r="R8" s="2" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>46884.8352482552</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46867.550660912</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>203</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>301</v>
       </c>
@@ -3408,10 +3405,10 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>11.5373134328358</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11.5777777777778</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>302</v>
       </c>
@@ -3449,10 +3446,10 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>2.10413748036358</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2.09144688760061</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>303</v>
       </c>
@@ -3486,7 +3483,7 @@
         <v>2.66666666666667</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>304</v>
       </c>
@@ -3520,7 +3517,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>305</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>306</v>
       </c>
@@ -3588,7 +3585,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>307</v>
       </c>
@@ -3622,7 +3619,7 @@
         <v>0.533333333333333</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>308</v>
       </c>
@@ -3656,7 +3653,7 @@
         <v>0.642857142857143</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>309</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>310</v>
       </c>
@@ -3724,7 +3721,7 @@
         <v>0.777777777777778</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>311</v>
       </c>
@@ -3758,7 +3755,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>312</v>
       </c>
@@ -3792,7 +3789,7 @@
         <v>0.777777777777778</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>313</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>0.636363636363636</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>314</v>
       </c>
@@ -3860,7 +3857,7 @@
         <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>315</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>316</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>1.28571428571429</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>317</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>318</v>
       </c>
@@ -3996,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>319</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>320</v>
       </c>
@@ -4064,7 +4061,7 @@
         <v>0.714285714285714</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>321</v>
       </c>
@@ -4098,7 +4095,7 @@
         <v>0.777777777777778</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>322</v>
       </c>
@@ -4132,7 +4129,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>323</v>
       </c>
@@ -4166,7 +4163,7 @@
         <v>0.888888888888889</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>324</v>
       </c>
@@ -4200,7 +4197,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>325</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>326</v>
       </c>
@@ -4268,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>327</v>
       </c>
@@ -4302,7 +4299,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>328</v>
       </c>
@@ -4336,7 +4333,7 @@
         <v>0.833333333333333</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>401</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>402</v>
       </c>
@@ -4404,7 +4401,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>403</v>
       </c>
@@ -4438,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>501</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>502</v>
       </c>
@@ -4506,7 +4503,7 @@
         <v>2.66666666666667</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>503</v>
       </c>
@@ -4540,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>504</v>
       </c>
@@ -4574,7 +4571,7 @@
         <v>0.727272727272727</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>505</v>
       </c>
@@ -4608,7 +4605,7 @@
         <v>0.571428571428571</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>506</v>
       </c>
@@ -4642,7 +4639,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>507</v>
       </c>
@@ -4677,7 +4674,7 @@
         <v>0.777777777777778</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>508</v>
       </c>
@@ -4712,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>509</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>0.571428571428571</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>510</v>
       </c>
@@ -4782,7 +4779,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>511</v>
       </c>
@@ -4817,7 +4814,7 @@
         <v>1.11111111111111</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>512</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>0.888888888888889</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>513</v>
       </c>
@@ -4887,7 +4884,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>514</v>
       </c>
@@ -4922,7 +4919,7 @@
         <v>0.727272727272727</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>515</v>
       </c>
@@ -4957,7 +4954,7 @@
         <v>1.14285714285714</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>516</v>
       </c>
@@ -4992,7 +4989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>517</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>518</v>
       </c>
@@ -5062,7 +5059,7 @@
         <v>0.888888888888889</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>519</v>
       </c>
@@ -5097,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>520</v>
       </c>
@@ -5132,7 +5129,7 @@
         <v>2.66666666666667</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>521</v>
       </c>
@@ -5167,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>522</v>
       </c>
@@ -5202,7 +5199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>523</v>
       </c>
@@ -5237,7 +5234,7 @@
         <v>2.66666666666667</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>524</v>
       </c>
@@ -5272,7 +5269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>525</v>
       </c>
@@ -5307,7 +5304,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>526</v>
       </c>
@@ -5342,7 +5339,7 @@
         <v>2.66666666666667</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>527</v>
       </c>
@@ -5377,7 +5374,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>528</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>2.33333333333333</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>529</v>
       </c>
@@ -5447,7 +5444,7 @@
         <v>2.33333333333333</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>601</v>
       </c>
@@ -5481,7 +5478,7 @@
         <v>2.33333333333333</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>602</v>
       </c>
@@ -5516,7 +5513,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>603</v>
       </c>
@@ -5551,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>604</v>
       </c>
@@ -5586,7 +5583,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>605</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>1.66666666666667</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>606</v>
       </c>
@@ -5656,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>607</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>1.14285714285714</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>608</v>
       </c>
@@ -5726,7 +5723,7 @@
         <v>2.33333333333333</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>609</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>1.33333333333333</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>610</v>
       </c>
@@ -5796,7 +5793,7 @@
         <v>2.33333333333333</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>701</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>702</v>
       </c>
@@ -5864,7 +5861,7 @@
         <v>1.28571428571429</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>703</v>
       </c>
@@ -5898,7 +5895,7 @@
         <v>0.888888888888889</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>704</v>
       </c>
@@ -5932,7 +5929,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>705</v>
       </c>
@@ -5966,7 +5963,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>706</v>
       </c>
@@ -6000,7 +5997,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>707</v>
       </c>
@@ -6034,7 +6031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>708</v>
       </c>
@@ -6068,7 +6065,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>709</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>5.33333333333333</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>710</v>
       </c>
@@ -6138,7 +6135,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>711</v>
       </c>
@@ -6173,7 +6170,7 @@
         <v>3.66666666666667</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>801</v>
       </c>
@@ -6207,7 +6204,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>802</v>
       </c>
@@ -6242,7 +6239,7 @@
         <v>4.66666666666667</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>803</v>
       </c>
@@ -6277,7 +6274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>804</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>805</v>
       </c>
@@ -6347,7 +6344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>806</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>2.83333333333333</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>807</v>
       </c>
@@ -6415,7 +6412,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>808</v>
       </c>
@@ -6450,7 +6447,7 @@
         <v>2.83333333333333</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>809</v>
       </c>
@@ -6484,7 +6481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>810</v>
       </c>
@@ -6519,7 +6516,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>811</v>
       </c>
@@ -6554,7 +6551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>812</v>
       </c>
@@ -6589,7 +6586,7 @@
         <v>2.77777777777778</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>813</v>
       </c>
@@ -6624,7 +6621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>814</v>
       </c>
@@ -6659,7 +6656,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>815</v>
       </c>
@@ -6693,7 +6690,7 @@
         <v>2.28571428571429</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>816</v>
       </c>
@@ -6728,7 +6725,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>817</v>
       </c>
@@ -6762,7 +6759,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>818</v>
       </c>
@@ -6797,7 +6794,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>819</v>
       </c>
@@ -6832,7 +6829,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>820</v>
       </c>
@@ -6867,7 +6864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>821</v>
       </c>
@@ -6901,7 +6898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>822</v>
       </c>
@@ -6935,7 +6932,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>823</v>
       </c>
@@ -6969,7 +6966,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>824</v>
       </c>
@@ -7004,7 +7001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>825</v>
       </c>
@@ -7038,7 +7035,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>826</v>
       </c>
@@ -7072,7 +7069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>827</v>
       </c>
@@ -7106,7 +7103,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>828</v>
       </c>
@@ -7140,7 +7137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>829</v>
       </c>
@@ -7174,7 +7171,7 @@
         <v>3.66666666666667</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>901</v>
       </c>
@@ -7208,7 +7205,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>902</v>
       </c>
@@ -7242,7 +7239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>903</v>
       </c>
@@ -7276,7 +7273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>904</v>
       </c>
@@ -7310,7 +7307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>905</v>
       </c>
@@ -7344,7 +7341,7 @@
         <v>3.83333333333333</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>906</v>
       </c>
@@ -7378,7 +7375,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>907</v>
       </c>
@@ -7412,7 +7409,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>908</v>
       </c>
@@ -7446,7 +7443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>909</v>
       </c>
@@ -7481,7 +7478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>910</v>
       </c>
@@ -7516,7 +7513,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>911</v>
       </c>
@@ -7723,6 +7720,40 @@
       <c r="I135" s="1" t="n">
         <f aca="false">E135/H135</f>
         <v>8.33333333333333</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f aca="false">"卷"&amp;ROW(B135)</f>
+        <v>卷135</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>46046</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <f aca="false">D136-C136+1</f>
+        <v>17</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <f aca="false">G135+1</f>
+        <v>479</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <f aca="false">IF(F136*G136&lt;0,ABS(F136)+ABS(G136),G136-F136+1)</f>
+        <v>5</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <f aca="false">E136/H136</f>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -7750,7 +7781,7 @@
       <selection pane="bottomLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.09"/>
@@ -7786,7 +7817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>101</v>
       </c>
@@ -7816,7 +7847,7 @@
         <v>101|[卷1](9_筆記/资治通鉴1.html)|周紀一|-403|-369|周威烈王23年至24年、周安王共26年、周烈王至7年</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>102</v>
       </c>
@@ -7849,7 +7880,7 @@
         <v>102|[卷2](9_筆記/资治通鉴2.html)|周紀二|-368|-321|周顯王共48年</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>103</v>
       </c>
@@ -7879,7 +7910,7 @@
         <v>103|[卷3](9_筆記/资治通鉴3.html)|周紀三|-320|-298|周慎靚王共6年、周赧王至17年</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>104</v>
       </c>
@@ -7909,7 +7940,7 @@
         <v>104|[卷4](9_筆記/资治通鉴4.html)|周紀四|-297|-273|周赧王18年至42年</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>105</v>
       </c>
@@ -7939,7 +7970,7 @@
         <v>105|[卷5](9_筆記/资治通鉴5.html)|周紀五|-272|-256|周赧王43年至59年</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>201</v>
       </c>
@@ -7969,7 +8000,7 @@
         <v>201|[卷6](9_筆記/资治通鉴6.html)|秦紀一|-255|-228|秦昭襄王52年至56年、秦孝文王共1年、秦莊襄王共3年、秦王政至19年</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>202</v>
       </c>
@@ -7999,7 +8030,7 @@
         <v>202|[卷7](9_筆記/资治通鉴7.html)|秦紀二|-227|-209|秦始皇20年至37年、秦二世元年</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>203</v>
       </c>
@@ -8026,7 +8057,7 @@
         <v>203|[卷8](9_筆記/资治通鉴8.html)|秦紀三|-208|-207|秦二世2年至3年</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>301</v>
       </c>
@@ -8059,7 +8090,7 @@
         <v>301|[卷9](9_筆記/资治通鉴9.html)|漢紀一|-206|-205|楚漢至2年</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>302</v>
       </c>
@@ -8089,7 +8120,7 @@
         <v>302|[卷10](9_筆記/资治通鉴10.html)|漢紀二|-204|-203|楚漢3年至4年</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>303</v>
       </c>
@@ -8119,7 +8150,7 @@
         <v>303|[卷11](9_筆記/资治通鉴11.html)|漢紀三|-202|-200|漢高祖5年至7年</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>304</v>
       </c>
@@ -8146,7 +8177,7 @@
         <v>304|[卷12](9_筆記/资治通鉴12.html)|漢紀四|-199|-188|漢高祖8年至12年、漢惠帝共7年</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>305</v>
       </c>
@@ -8179,7 +8210,7 @@
         <v>305|[卷13](9_筆記/资治通鉴13.html)|漢紀五|-187|-178|漢高后共8年、漢文帝至2年</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>306</v>
       </c>
@@ -8209,7 +8240,7 @@
         <v>306|[卷14](9_筆記/资治通鉴14.html)|漢紀六|-177|-170|漢文帝3年至10年</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>307</v>
       </c>
@@ -8239,7 +8270,7 @@
         <v>307|[卷15](9_筆記/资治通鉴15.html)|漢紀七|-169|-155|漢文帝11年至23年、漢景帝至2年</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>308</v>
       </c>
@@ -8272,7 +8303,7 @@
         <v>308|[卷16](9_筆記/资治通鉴16.html)|漢紀八|-154|-141|漢景帝3年至16年</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>309</v>
       </c>
@@ -8305,7 +8336,7 @@
         <v>309|[卷17](9_筆記/资治通鉴17.html)|漢紀九|-140|-134|漢武帝至7年</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>310</v>
       </c>
@@ -8335,7 +8366,7 @@
         <v>310|[卷18](9_筆記/资治通鉴18.html)|漢紀十|-133|-125|漢武帝8年至16年</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>311</v>
       </c>
@@ -8368,7 +8399,7 @@
         <v>311|[卷19](9_筆記/资治通鉴19.html)|漢紀十一|-124|-119|漢武帝17年至22年</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>312</v>
       </c>
@@ -8398,7 +8429,7 @@
         <v>312|[卷20](9_筆記/资治通鉴20.html)|漢紀十二|-118|-110|漢武帝23年至31年</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>313</v>
       </c>
@@ -8425,7 +8456,7 @@
         <v>313|[卷21](9_筆記/资治通鉴21.html)|漢紀十三|-109|-99|漢武帝32年至42年</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>314</v>
       </c>
@@ -8455,7 +8486,7 @@
         <v>314|[卷22](9_筆記/资治通鉴22.html)|漢紀十四|-98|-87|漢武帝43年至54年</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>315</v>
       </c>
@@ -8485,7 +8516,7 @@
         <v>315|[卷23](9_筆記/资治通鉴23.html)|漢紀十五|-86|-75|漢昭帝至12年</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>316</v>
       </c>
@@ -8518,7 +8549,7 @@
         <v>316|[卷24](9_筆記/资治通鉴24.html)|漢紀十六|-74|-68|漢昭帝13年、漢廢帝、漢宣帝至6年</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>317</v>
       </c>
@@ -8548,7 +8579,7 @@
         <v>317|[卷25](9_筆記/资治通鉴25.html)|漢紀十七|-67|-62|漢宣帝7年至12年</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>318</v>
       </c>
@@ -8575,7 +8606,7 @@
         <v>318|[卷26](9_筆記/资治通鉴26.html)|漢紀十八|-61|-59|漢宣帝13年至15年</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>319</v>
       </c>
@@ -8608,7 +8639,7 @@
         <v>319|[卷27](9_筆記/资治通鉴27.html)|漢紀十九|-58|-49|漢宣帝16年至25年</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>320</v>
       </c>
@@ -8638,7 +8669,7 @@
         <v>320|[卷28](9_筆記/资治通鉴28.html)|漢紀二十|-48|-42|漢元帝至7年</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>321</v>
       </c>
@@ -8668,7 +8699,7 @@
         <v>321|[卷29](9_筆記/资治通鉴29.html)|漢紀二十一|-41|-33|漢元帝8年至16年</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>322</v>
       </c>
@@ -8698,7 +8729,7 @@
         <v>322|[卷30](9_筆記/资治通鉴30.html)|漢紀二十二|-32|-23|漢成帝至10年</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>323</v>
       </c>
@@ -8731,7 +8762,7 @@
         <v>323|[卷31](9_筆記/资治通鉴31.html)|漢紀二十三|-22|-14|漢成帝11年19年</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>324</v>
       </c>
@@ -8761,7 +8792,7 @@
         <v>324|[卷32](9_筆記/资治通鉴32.html)|漢紀二十四|-13|-8|漢成帝20年至25年</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>325</v>
       </c>
@@ -8791,7 +8822,7 @@
         <v>325|[卷33](9_筆記/资治通鉴33.html)|漢紀二十五|-7|-6|漢成帝26年、漢哀帝元年</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>326</v>
       </c>
@@ -8821,7 +8852,7 @@
         <v>326|[卷34](9_筆記/资治通鉴34.html)|漢紀二十六|-5|-3|漢哀帝2年至4年</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>327</v>
       </c>
@@ -8854,7 +8885,7 @@
         <v>327|[卷35](9_筆記/资治通鉴35.html)|漢紀二十七|-2|2|漢哀帝5年至6年、漢平帝至2年</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>328</v>
       </c>
@@ -8884,7 +8915,7 @@
         <v>328|[卷36](9_筆記/资治通鉴36.html)|漢紀二十八|3|8|漢平帝3年至6年、王莽居攝、始初至3年</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>401</v>
       </c>
@@ -8914,7 +8945,7 @@
         <v>401|[卷37](9_筆記/资治通鉴37.html)|漢紀二十九|9|14|王莽至6年</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>402</v>
       </c>
@@ -8944,7 +8975,7 @@
         <v>402|[卷38](9_筆記/资治通鉴38.html)|漢紀三十|15|22|王莽7年至14年</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>403</v>
       </c>
@@ -8974,7 +9005,7 @@
         <v>403|[卷39](9_筆記/资治通鉴39.html)|漢紀三十一|23|24|王莽15年、玄漢至2年</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>501</v>
       </c>
@@ -9001,7 +9032,7 @@
         <v>501|[卷40](9_筆記/资治通鉴40.html)|漢紀三十二|25|26|漢光武帝至2年</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>502</v>
       </c>
@@ -9031,7 +9062,7 @@
         <v>502|[卷41](9_筆記/资治通鉴41.html)|漢紀三十三|27|29|漢光武帝3年至5年</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>503</v>
       </c>
@@ -9061,7 +9092,7 @@
         <v>503|[卷42](9_筆記/资治通鉴42.html)|漢紀三十四|30|35|漢光武帝6年至11年</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>504</v>
       </c>
@@ -9091,7 +9122,7 @@
         <v>504|[卷43](9_筆記/资治通鉴43.html)|漢紀三十五|36|46|漢光武帝12年至22年</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>505</v>
       </c>
@@ -9121,7 +9152,7 @@
         <v>505|[卷44](9_筆記/资治通鉴44.html)|漢紀三十六|47|60|漢光武帝23年至33年、漢明帝至3年</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>506</v>
       </c>
@@ -9154,7 +9185,7 @@
         <v>506|[卷45](9_筆記/资治通鉴45.html)|漢紀三十七|61|75|漢明帝4年至18年</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>507</v>
       </c>
@@ -9184,7 +9215,7 @@
         <v>507|[卷46](9_筆記/资治通鉴46.html)|漢紀三十八|76|84|漢章帝至9年</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>508</v>
       </c>
@@ -9217,7 +9248,7 @@
         <v>508|[卷47](9_筆記/资治通鉴47.html)|漢紀三十九|85|91|漢章帝10年至13年、漢和帝至3年</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>509</v>
       </c>
@@ -9247,7 +9278,7 @@
         <v>509|[卷48](9_筆記/资治通鉴48.html)|漢紀四十|92|105|漢和帝4年至17年</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>510</v>
       </c>
@@ -9274,7 +9305,7 @@
         <v>510|[卷49](9_筆記/资治通鉴49.html)|漢紀四十一|106|115|漢殤帝元年、漢安帝至9年</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>511</v>
       </c>
@@ -9307,7 +9338,7 @@
         <v>511|[卷50](9_筆記/资治通鉴50.html)|漢紀四十二|116|124|漢安帝10年至18年</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>512</v>
       </c>
@@ -9337,7 +9368,7 @@
         <v>512|[卷51](9_筆記/资治通鉴51.html)|漢紀四十三|125|133|漢安帝19年、前少帝劉懿、漢順帝至8年</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>513</v>
       </c>
@@ -9364,7 +9395,7 @@
         <v>513|[卷52](9_筆記/资治通鉴52.html)|漢紀四十四|134|145|漢順帝9年至19年、漢沖帝、漢質帝</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>514</v>
       </c>
@@ -9394,7 +9425,7 @@
         <v>514|[卷53](9_筆記/资治通鉴53.html)|漢紀四十五|146|156|漢桓帝至10年</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>515</v>
       </c>
@@ -9427,7 +9458,7 @@
         <v>515|[卷54](9_筆記/资治通鉴54.html)|漢紀四十六|157|163|漢桓帝11年至17年</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>516</v>
       </c>
@@ -9454,7 +9485,7 @@
         <v>516|[卷55](9_筆記/资治通鉴55.html)|漢紀四十七|164|166|漢桓帝18年至20年</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>517</v>
       </c>
@@ -9484,7 +9515,7 @@
         <v>517|[卷56](9_筆記/资治通鉴56.html)|漢紀四十八|167|171|漢桓帝21年、漢靈帝至4年</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>518</v>
       </c>
@@ -9511,7 +9542,7 @@
         <v>518|[卷57](9_筆記/资治通鉴57.html)|漢紀四十九|172|180|漢靈帝5年至13年</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>519</v>
       </c>
@@ -9541,7 +9572,7 @@
         <v>519|[卷58](9_筆記/资治通鉴58.html)|漢紀五十|181|187|漢靈帝14年至20年</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>520</v>
       </c>
@@ -9571,7 +9602,7 @@
         <v>520|[卷59](9_筆記/资治通鉴59.html)|漢紀五十一|188|190|漢靈帝21年、劉辯、漢獻帝至2年</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>521</v>
       </c>
@@ -9601,7 +9632,7 @@
         <v>521|[卷60](9_筆記/资治通鉴60.html)|漢紀五十二|191|193|漢獻帝3年至5年</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>522</v>
       </c>
@@ -9631,7 +9662,7 @@
         <v>522|[卷61](9_筆記/资治通鉴61.html)|漢紀五十三|194|195|漢獻帝6年至7年</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>523</v>
       </c>
@@ -9664,7 +9695,7 @@
         <v>523|[卷62](9_筆記/资治通鉴62.html)|漢紀五十四|196|198|漢獻帝8年至10年</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>524</v>
       </c>
@@ -9691,7 +9722,7 @@
         <v>524|[卷63](9_筆記/资治通鉴63.html)|漢紀五十五|199|200|漢獻帝11年至12年</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>525</v>
       </c>
@@ -9721,7 +9752,7 @@
         <v>525|[卷64](9_筆記/资治通鉴64.html)|漢紀五十六|201|205|漢獻帝13年至17年</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>526</v>
       </c>
@@ -9748,7 +9779,7 @@
         <v>526|[卷65](9_筆記/资治通鉴65.html)|漢紀五十七|206|208|漢獻帝18年至20年</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>527</v>
       </c>
@@ -9775,7 +9806,7 @@
         <v>527|[卷66](9_筆記/资治通鉴66.html)|漢紀五十八|209|213|漢獻帝21年至25年</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>528</v>
       </c>
@@ -9805,7 +9836,7 @@
         <v>528|[卷67](9_筆記/资治通鉴67.html)|漢紀五十九|214|216|漢獻帝26年至28年</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>529</v>
       </c>
@@ -9832,7 +9863,7 @@
         <v>529|[卷68](9_筆記/资治通鉴68.html)|漢紀六十|217|219|漢獻帝29年至31年</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>601</v>
       </c>
@@ -9859,7 +9890,7 @@
         <v>601|[卷69](9_筆記/资治通鉴69.html)|魏紀一|220|222|曹丕至3年</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>602</v>
       </c>
@@ -9889,7 +9920,7 @@
         <v>602|[卷70](9_筆記/资治通鉴70.html)|魏紀二|223|227|曹丕4年至7年、曹叡至2年</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>603</v>
       </c>
@@ -9916,7 +9947,7 @@
         <v>603|[卷71](9_筆記/资治通鉴71.html)|魏紀三|228|230|曹叡3年至5年</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>604</v>
       </c>
@@ -9946,7 +9977,7 @@
         <v>604|[卷72](9_筆記/资治通鉴72.html)|魏紀四|231|234|曹叡6年至9年</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>605</v>
       </c>
@@ -9976,7 +10007,7 @@
         <v>605|[卷73](9_筆記/资治通鉴73.html)|魏紀五|235|237|曹叡10年至12年</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>606</v>
       </c>
@@ -10006,7 +10037,7 @@
         <v>606|[卷74](9_筆記/资治通鉴74.html)|魏紀六|238|245|曹叡13年至14年、曹芳至7年</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>607</v>
       </c>
@@ -10039,7 +10070,7 @@
         <v>607|[卷75](9_筆記/资治通鉴75.html)|魏紀七|246|252|曹芳8年至14年</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>608</v>
       </c>
@@ -10069,7 +10100,7 @@
         <v>608|[卷76](9_筆記/资治通鉴76.html)|魏紀八|253|255|曹芳15年至16年、曹髦至2年</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>609</v>
       </c>
@@ -10099,7 +10130,7 @@
         <v>609|[卷77](9_筆記/资治通鉴77.html)|魏紀九|256|261|曹髦3年至7年、曹奐至2年</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>610</v>
       </c>
@@ -10129,7 +10160,7 @@
         <v>610|[卷78](9_筆記/资治通鉴78.html)|魏紀十|262|264|曹奐3年至5年</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>701</v>
       </c>
@@ -10156,7 +10187,7 @@
         <v>701|[卷79](9_筆記/资治通鉴79.html)|晉紀一|265|272|曹奐6年至7年、司馬炎至7年</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>702</v>
       </c>
@@ -10186,7 +10217,7 @@
         <v>702|[卷80](9_筆記/资治通鉴80.html)|晉紀二|273|279|司馬炎8年至14年</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>703</v>
       </c>
@@ -10216,7 +10247,7 @@
         <v>703|[卷81](9_筆記/资治通鉴81.html)|晉紀三|280|288|司馬炎15年至23年</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>704</v>
       </c>
@@ -10243,7 +10274,7 @@
         <v>704|[卷82](9_筆記/资治通鉴82.html)|晉紀四|289|298|司馬炎24年至25年、晉惠帝至9年</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>705</v>
       </c>
@@ -10270,7 +10301,7 @@
         <v>705|[卷83](9_筆記/资治通鉴83.html)|晉紀五|299|300|晉惠帝10年至11年</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>706</v>
       </c>
@@ -10297,7 +10328,7 @@
         <v>706|[卷84](9_筆記/资治通鉴84.html)|晉紀六|301|302|晉惠帝12年、司馬倫、晉惠帝13年</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>707</v>
       </c>
@@ -10327,7 +10358,7 @@
         <v>707|[卷85](9_筆記/资治通鉴85.html)|晉紀七|303|304|晉惠帝14年至15年</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>708</v>
       </c>
@@ -10354,7 +10385,7 @@
         <v>708|[卷86](9_筆記/资治通鉴86.html)|晉紀八|305|308|晉惠帝16年至18年、晉懷帝至2年</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>709</v>
       </c>
@@ -10381,7 +10412,7 @@
         <v>709|[卷87](9_筆記/资治通鉴87.html)|晉紀九|309|311|晉懷帝3年至5年</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>710</v>
       </c>
@@ -10408,7 +10439,7 @@
         <v>710|[卷88](9_筆記/资治通鉴88.html)|晉紀十|312|313|晉懷帝6年至7年、晉愍帝元年</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>711</v>
       </c>
@@ -10435,7 +10466,7 @@
         <v>711|[卷89](9_筆記/资治通鉴89.html)|晉紀十一|314|316|晉愍帝2年至4年</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>801</v>
       </c>
@@ -10462,7 +10493,7 @@
         <v>801|[卷90](9_筆記/资治通鉴90.html)|晉紀十二|317|318|晉元帝至2年</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>802</v>
       </c>
@@ -10489,7 +10520,7 @@
         <v>802|[卷91](9_筆記/资治通鉴91.html)|晉紀十三|319|321|晉元帝3年至5年</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>803</v>
       </c>
@@ -10519,7 +10550,7 @@
         <v>803|[卷92](9_筆記/资治通鉴92.html)|晉紀十四|322|323|晉元帝6年至7年、晉明帝元年</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>804</v>
       </c>
@@ -10546,7 +10577,7 @@
         <v>804|[卷93](9_筆記/资治通鉴93.html)|晉紀十五|324|327|晉明帝2年至3年、晉成帝至3年</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>805</v>
       </c>
@@ -10573,7 +10604,7 @@
         <v>805|[卷94](9_筆記/资治通鉴94.html)|晉紀十六|328|331|晉成帝4年至7年</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>806</v>
       </c>
@@ -10600,7 +10631,7 @@
         <v>806|[卷95](9_筆記/资治通鉴95.html)|晉紀十七|332|337|晉成帝8年至13年</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>807</v>
       </c>
@@ -10627,7 +10658,7 @@
         <v>807|[卷96](9_筆記/资治通鉴96.html)|晉紀十八|338|341|晉成帝14年至17年</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>808</v>
       </c>
@@ -10654,7 +10685,7 @@
         <v>808|[卷97](9_筆記/资治通鉴97.html)|晉紀十九|342|347|晉成帝18年、晉康帝共3年、晉穆帝至4年</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>809</v>
       </c>
@@ -10687,7 +10718,7 @@
         <v>809|[卷98](9_筆記/资治通鉴98.html)|晉紀二十|348|350|晉穆帝5年至7年</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>810</v>
       </c>
@@ -10714,7 +10745,7 @@
         <v>810|[卷99](9_筆記/资治通鉴99.html)|晉紀二十一|351|354|晉穆帝8年至11年</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>811</v>
       </c>
@@ -10741,7 +10772,7 @@
         <v>811|[卷100](9_筆記/资治通鉴100.html)|晉紀二十二|355|359|晉穆帝12年至16年</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>812</v>
       </c>
@@ -10768,7 +10799,7 @@
         <v>812|[卷101](9_筆記/资治通鉴101.html)|晉紀二十三|360|368|晉穆帝17年至18年、晉哀帝至5年、晉廢帝至4年</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>813</v>
       </c>
@@ -10795,7 +10826,7 @@
         <v>813|[卷102](9_筆記/资治通鉴102.html)|晉紀二十四|369|370|晉廢帝5年至6年</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>814</v>
       </c>
@@ -10822,7 +10853,7 @@
         <v>814|[卷103](9_筆記/资治通鉴103.html)|晉紀二十五|371|375|晉廢帝7年、晉簡文帝至2年、晉孝武帝至4年</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>815</v>
       </c>
@@ -10849,7 +10880,7 @@
         <v>815|[卷104](9_筆記/资治通鉴104.html)|晉紀二十六|376|382|晉孝武帝5年至11年</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>816</v>
       </c>
@@ -10876,7 +10907,7 @@
         <v>816|[卷105](9_筆記/资治通鉴105.html)|晉紀二十七|383|384|晉孝武帝12年至13年</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>817</v>
       </c>
@@ -10903,7 +10934,7 @@
         <v>817|[卷106](9_筆記/资治通鉴106.html)|晉紀二十八|385|386|晉孝武帝14年至15年</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>818</v>
       </c>
@@ -10930,7 +10961,7 @@
         <v>818|[卷107](9_筆記/资治通鉴107.html)|晉紀二十九|387|391|晉孝武帝16年至20年</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>819</v>
       </c>
@@ -10960,7 +10991,7 @@
         <v>819|[卷108](9_筆記/资治通鉴108.html)|晉紀三十|392|396|晉孝武帝21年至25年、晉安帝元年</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>820</v>
       </c>
@@ -10987,7 +11018,7 @@
         <v>820|[卷109](9_筆記/资治通鉴109.html)|晉紀三十一|397|397|晉安帝2年</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>821</v>
       </c>
@@ -11014,7 +11045,7 @@
         <v>821|[卷110](9_筆記/资治通鉴110.html)|晉紀三十二|398|398|晉安帝3年</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>822</v>
       </c>
@@ -11041,7 +11072,7 @@
         <v>822|[卷111](9_筆記/资治通鉴111.html)|晉紀三十三|399|400|晉安帝4年至5年</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>823</v>
       </c>
@@ -11068,7 +11099,7 @@
         <v>823|[卷112](9_筆記/资治通鉴112.html)|晉紀三十四|401|402|晉安帝6年至7年</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>824</v>
       </c>
@@ -11095,7 +11126,7 @@
         <v>824|[卷113](9_筆記/资治通鉴113.html)|晉紀三十五|403|404|桓楚至2年、晉安帝8年至9年</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>825</v>
       </c>
@@ -11122,7 +11153,7 @@
         <v>825|[卷114](9_筆記/资治通鉴114.html)|晉紀三十六|405|408|桓楚3年、晉安帝10年至13年</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>826</v>
       </c>
@@ -11149,7 +11180,7 @@
         <v>826|[卷115](9_筆記/资治通鉴115.html)|晉紀三十七|409|410|晉安帝14年至15年</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>827</v>
       </c>
@@ -11179,7 +11210,7 @@
         <v>827|[卷116](9_筆記/资治通鉴116.html)|晉紀三十八|411|414|晉安帝16年至19年</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>828</v>
       </c>
@@ -11206,7 +11237,7 @@
         <v>828|[卷117](9_筆記/资治通鉴117.html)|晉紀三十九|415|416|晉安帝20年至21年</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>829</v>
       </c>
@@ -11233,7 +11264,7 @@
         <v>829|[卷118](9_筆記/资治通鉴118.html)|晉紀四十|417|419|晉安帝22年至24年、晉恭帝元年</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>901</v>
       </c>
@@ -11260,7 +11291,7 @@
         <v>901|[卷119](9_筆記/资治通鉴119.html)|宋紀一|420|423|晉恭帝2年、宋武帝元年至3年、劉義符元年至2年</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>902</v>
       </c>
@@ -11287,7 +11318,7 @@
         <v>902|[卷120](9_筆記/资治通鉴120.html)|宋紀二|424|427|劉義符3年、宋文帝元年至4年</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>903</v>
       </c>
@@ -11317,7 +11348,7 @@
         <v>903|[卷121](9_筆記/资治通鉴121.html)|宋紀三|428|430|宋文帝5年至7年</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>904</v>
       </c>
@@ -11341,7 +11372,7 @@
         <v>904|[卷122](9_筆記/资治通鉴122.html)|宋紀四|431|435|</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>905</v>
       </c>
@@ -11365,7 +11396,7 @@
         <v>905|[卷123](9_筆記/资治通鉴123.html)|宋紀五|436|441|</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>906</v>
       </c>
@@ -11389,7 +11420,7 @@
         <v>906|[卷124](9_筆記/资治通鉴124.html)|宋紀六|442|446|</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>907</v>
       </c>
@@ -11413,7 +11444,7 @@
         <v>907|[卷125](9_筆記/资治通鉴125.html)|宋紀七|447|450|</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>908</v>
       </c>
@@ -11437,7 +11468,7 @@
         <v>908|[卷126](9_筆記/资治通鉴126.html)|宋紀八|451|452|</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>909</v>
       </c>
@@ -11461,7 +11492,7 @@
         <v>909|[卷127](9_筆記/资治通鉴127.html)|宋紀九|453|453|</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>910</v>
       </c>
@@ -11485,7 +11516,7 @@
         <v>910|[卷128](9_筆記/资治通鉴128.html)|宋紀十|454|458|</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>911</v>
       </c>
@@ -11509,7 +11540,7 @@
         <v>911|[卷129](9_筆記/资治通鉴129.html)|宋紀十一|459|464|</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>912</v>
       </c>
@@ -11533,7 +11564,7 @@
         <v>912|[卷130](9_筆記/资治通鉴130.html)|宋紀十二|465|465|</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>913</v>
       </c>
@@ -11557,7 +11588,7 @@
         <v>913|[卷131](9_筆記/资治通鉴131.html)|宋紀十三|466|466|</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>914</v>
       </c>
@@ -11581,7 +11612,7 @@
         <v>914|[卷132](9_筆記/资治通鉴132.html)|宋紀十四|467|470|</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>915</v>
       </c>
@@ -11605,28 +11636,28 @@
         <v>915|[卷133](9_筆記/资治通鉴133.html)|宋紀十五|471|475|</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>916</v>
       </c>
-      <c r="B135" s="1" t="e">
+      <c r="B135" s="1" t="str">
         <f aca="false">VLOOKUP($A135,統計!$A:$G,2,)</f>
-        <v>#N/A</v>
+        <v>卷135</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D135" s="1" t="e">
+      <c r="D135" s="1" t="n">
         <f aca="false">VLOOKUP($A135,統計!$A:$G,6,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E135" s="1" t="e">
+        <v>479</v>
+      </c>
+      <c r="E135" s="1" t="n">
         <f aca="false">VLOOKUP($A135,統計!$A:$G,7,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I135" s="1" t="e">
+        <v>483</v>
+      </c>
+      <c r="I135" s="1" t="str">
         <f aca="false">A135&amp;"|"&amp;"["&amp;B135&amp;"](9_筆記/资治通鉴"&amp;SUBSTITUTE(B135,"卷","")&amp;".html)|"&amp;C135&amp;"|"&amp;D135&amp;"|"&amp;E135&amp;"|"&amp;H135</f>
-        <v>#N/A</v>
+        <v>916|[卷135](9_筆記/资治通鉴135.html)|宋紀十六|479|483|</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15491,7 +15522,7 @@
       <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -15504,7 +15535,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="n">
         <v>268</v>
       </c>

--- a/9_筆記/閱讀數據.xlsx
+++ b/9_筆記/閱讀數據.xlsx
@@ -2417,11 +2417,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="27855261"/>
-        <c:axId val="72329427"/>
+        <c:axId val="64959230"/>
+        <c:axId val="5713901"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27855261"/>
+        <c:axId val="64959230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,12 +2497,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72329427"/>
+        <c:crossAx val="5713901"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72329427"/>
+        <c:axId val="5713901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +2578,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27855261"/>
+        <c:crossAx val="64959230"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2617,9 +2617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>645840</xdr:colOff>
+      <xdr:colOff>645480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2628,7 +2628,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7869960" y="2651760"/>
-        <a:ext cx="4552560" cy="2737440"/>
+        <a:ext cx="4552200" cy="2737080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2818,12 +2818,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D136" activeCellId="0" sqref="D136"/>
+      <selection pane="bottomLeft" activeCell="G137" activeCellId="0" sqref="G137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.64453125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2940,19 +2940,19 @@
       </c>
       <c r="O2" s="1" t="n">
         <f aca="false">L2*$L$10</f>
-        <v>787.288888888889</v>
+        <v>787.5</v>
       </c>
       <c r="P2" s="2" t="n">
         <f aca="false">$C$2+O2</f>
-        <v>44806.2888888889</v>
+        <v>44806.5</v>
       </c>
       <c r="Q2" s="1" t="n">
         <f aca="false">(M2-$F$2)*$L$11</f>
-        <v>1302.97141097518</v>
+        <v>1297.00676173349</v>
       </c>
       <c r="R2" s="2" t="n">
         <f aca="false">$C$2+Q2</f>
-        <v>45321.9714109752</v>
+        <v>45316.0067617335</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,19 +3003,19 @@
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">L3*$L$10</f>
-        <v>903.066666666667</v>
+        <v>903.308823529412</v>
       </c>
       <c r="P3" s="2" t="n">
         <f aca="false">$C$2+O3</f>
-        <v>44922.0666666667</v>
+        <v>44922.3088235294</v>
       </c>
       <c r="Q3" s="1" t="n">
         <f aca="false">(M3-$F$2)*$L$11</f>
-        <v>1428.45822423122</v>
+        <v>1421.91913043977</v>
       </c>
       <c r="R3" s="2" t="n">
         <f aca="false">$C$2+Q3</f>
-        <v>45447.4582242312</v>
+        <v>45440.9191304398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,19 +3066,19 @@
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">L4*$L$10</f>
-        <v>1366.17777777778</v>
+        <v>1366.54411764706</v>
       </c>
       <c r="P4" s="2" t="n">
         <f aca="false">$C$2+O4</f>
-        <v>45385.1777777778</v>
+        <v>45385.5441176471</v>
       </c>
       <c r="Q4" s="1" t="n">
         <f aca="false">(M4-$F$2)*$L$11</f>
-        <v>1721.2607884953</v>
+        <v>1713.38132408774</v>
       </c>
       <c r="R4" s="2" t="n">
         <f aca="false">$C$2+Q4</f>
-        <v>45740.2607884953</v>
+        <v>45732.3813240877</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,19 +3129,19 @@
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">L5*$L$10</f>
-        <v>2037.68888888889</v>
+        <v>2038.23529411765</v>
       </c>
       <c r="P5" s="2" t="n">
         <f aca="false">$C$2+O5</f>
-        <v>46056.6888888889</v>
+        <v>46057.2352941177</v>
       </c>
       <c r="Q5" s="1" t="n">
         <f aca="false">(M5-$F$2)*$L$11</f>
-        <v>2074.7153124998</v>
+        <v>2065.21782927708</v>
       </c>
       <c r="R5" s="2" t="n">
         <f aca="false">$C$2+Q5</f>
-        <v>46093.7153124998</v>
+        <v>46084.2178292771</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,19 +3192,19 @@
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">L6*$L$10</f>
-        <v>3068.11111111111</v>
+        <v>3068.93382352941</v>
       </c>
       <c r="P6" s="2" t="n">
         <f aca="false">$C$2+O6</f>
-        <v>47087.1111111111</v>
+        <v>47087.9338235294</v>
       </c>
       <c r="Q6" s="1" t="n">
         <f aca="false">(M6-$F$2)*$L$11</f>
-        <v>2739.7954227568</v>
+        <v>2727.25338342034</v>
       </c>
       <c r="R6" s="2" t="n">
         <f aca="false">$C$2+Q6</f>
-        <v>46758.7954227568</v>
+        <v>46746.2533834203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,19 +3255,19 @@
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">L7*$L$10</f>
-        <v>3403.86666666667</v>
+        <v>3404.77941176471</v>
       </c>
       <c r="P7" s="2" t="n">
         <f aca="false">$C$2+O7</f>
-        <v>47422.8666666667</v>
+        <v>47423.7794117647</v>
       </c>
       <c r="Q7" s="1" t="n">
         <f aca="false">(M7-$F$2)*$L$11</f>
-        <v>2848.55066091203</v>
+        <v>2835.51076963245</v>
       </c>
       <c r="R7" s="2" t="n">
         <f aca="false">$C$2+Q7</f>
-        <v>46867.550660912</v>
+        <v>46854.5107696325</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,19 +3318,19 @@
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">L8*$L$10</f>
-        <v>3403.86666666667</v>
+        <v>3404.77941176471</v>
       </c>
       <c r="P8" s="2" t="n">
         <f aca="false">$C$2+O8</f>
-        <v>47422.8666666667</v>
+        <v>47423.7794117647</v>
       </c>
       <c r="Q8" s="1" t="n">
         <f aca="false">(M8-$F$2)*$L$11</f>
-        <v>2848.55066091203</v>
+        <v>2835.51076963245</v>
       </c>
       <c r="R8" s="2" t="n">
         <f aca="false">$C$2+Q8</f>
-        <v>46867.550660912</v>
+        <v>46854.5107696325</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">AVERAGE(E:E)</f>
-        <v>11.5777777777778</v>
+        <v>11.5808823529412</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="L11" s="1" t="n">
         <f aca="false">AVEDEV(I:I)</f>
-        <v>2.09144688760061</v>
+        <v>2.08187281177125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,6 +7754,40 @@
       <c r="I136" s="1" t="n">
         <f aca="false">E136/H136</f>
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f aca="false">"卷"&amp;ROW(B136)</f>
+        <v>卷136</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <f aca="false">D137-C137+1</f>
+        <v>12</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <f aca="false">G136+1</f>
+        <v>484</v>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <f aca="false">IF(F137*G137&lt;0,ABS(F137)+ABS(G137),G137-F137+1)</f>
+        <v>6</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <f aca="false">E137/H137</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
